--- a/biology/Médecine/Glafira_Ziegelmann/Glafira_Ziegelmann.xlsx
+++ b/biology/Médecine/Glafira_Ziegelmann/Glafira_Ziegelmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glafira Ziegelmann (1871-1935), a été étudiante à la faculté de médecine de Montpellier. C'est la première femme interne de Montpellier et la première femme admissible à l'agrégation de médecine.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Glafira Ziegelmann est née le 26 avril 1871, à Orenbourg, ville du sud de l’Oural, en Russie. Ses parents sont de riches propriétaires terriens. Après des études en Russie, elle obtient l’équivalent du baccalauréat français et part d’abord en Suisse puis en France en 1893.
-Elle suit un cursus brillant à la faculté de médecine de Montpellier. Première femme interne de Montpellier, elle soutient le 17 mai 1899[1] sa thèse sur le traitement de la maladie de Basedow. La même année, elle se marie avec Amans Gaussel, lui-même futur médecin et ils partent en voyage de noces en Russie. Quelques années plus tard, elle devient chef de clinique dans le service d’obstétrique et gynécologie en 1903. Sa mère meurt en 1906, la jeune femme se rend à ses obsèques en Russie[1]. En 1907, sa demande de concourir à l'agrégation est refusée, mais en 1910, elle est la première femme admissible à l’agrégation de médecine dont l'écrit est anonyme mais échoue à l’oral[2]. Cette année-là, elle obtient le titre d'officier d'académie[3]. Son père meurt en 1913.
-Durant la Première Guerre mondiale, elle remplace son mari mobilisé comme médecin chef du sanatorium qu’il a créé et soigne les soldats russes dans l’hôpital qui leur est dédié. À la fin de la guerre, elle reprend son travail de gynécologue. Elle assure aussi l'inspection médicale des écoles et des crèches. Elle meurt en octobre 1935, à soixante-quatre ans, d’une insuffisance cardiaque[4].
+Elle suit un cursus brillant à la faculté de médecine de Montpellier. Première femme interne de Montpellier, elle soutient le 17 mai 1899 sa thèse sur le traitement de la maladie de Basedow. La même année, elle se marie avec Amans Gaussel, lui-même futur médecin et ils partent en voyage de noces en Russie. Quelques années plus tard, elle devient chef de clinique dans le service d’obstétrique et gynécologie en 1903. Sa mère meurt en 1906, la jeune femme se rend à ses obsèques en Russie. En 1907, sa demande de concourir à l'agrégation est refusée, mais en 1910, elle est la première femme admissible à l’agrégation de médecine dont l'écrit est anonyme mais échoue à l’oral. Cette année-là, elle obtient le titre d'officier d'académie. Son père meurt en 1913.
+Durant la Première Guerre mondiale, elle remplace son mari mobilisé comme médecin chef du sanatorium qu’il a créé et soigne les soldats russes dans l’hôpital qui leur est dédié. À la fin de la guerre, elle reprend son travail de gynécologue. Elle assure aussi l'inspection médicale des écoles et des crèches. Elle meurt en octobre 1935, à soixante-quatre ans, d’une insuffisance cardiaque.
 </t>
         </is>
       </c>
